--- a/data/simple_data_example_v20160915.xlsx
+++ b/data/simple_data_example_v20160915.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="1940" windowWidth="25360" windowHeight="14620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="patients" sheetId="2" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>birthplace</t>
   </si>
   <si>
-    <t>john doe</t>
-  </si>
-  <si>
     <t>john</t>
   </si>
   <si>
@@ -55,15 +52,9 @@
     <t>1976-13-03</t>
   </si>
   <si>
-    <t>jane doe</t>
-  </si>
-  <si>
     <t>jane</t>
   </si>
   <si>
-    <t>pape doe</t>
-  </si>
-  <si>
     <t>papa</t>
   </si>
   <si>
@@ -101,6 +92,15 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>john_doe</t>
+  </si>
+  <si>
+    <t>jane_doe</t>
+  </si>
+  <si>
+    <t>papa_doe</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -561,16 +561,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -578,13 +578,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -633,22 +633,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -656,13 +656,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -681,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -692,13 +692,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -706,15 +706,14 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
